--- a/Texas Project Summary.xlsx
+++ b/Texas Project Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kairom13/Documents/Texas/TX Sen Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB23E4-223A-D549-A865-B24832909E51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38879B3C-9BB4-E243-A2F7-93C5B321D059}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1240" windowWidth="26440" windowHeight="15440" xr2:uid="{87A53D59-FB68-734F-A84F-4BC2B1E74F2F}"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="26440" windowHeight="15440" xr2:uid="{87A53D59-FB68-734F-A84F-4BC2B1E74F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -904,94 +904,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1392,8 +1305,8 @@
   <dimension ref="A1:W255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P244" sqref="P244"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,6 +1326,7 @@
     <col min="15" max="15" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -1592,11 +1506,11 @@
       </c>
       <c r="V3">
         <f>COUNTIF(C$2:C$255, U3)</f>
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="W3" s="2">
         <f>V3/V$8</f>
-        <v>0.65748031496062997</v>
+        <v>0.61811023622047245</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1663,11 +1577,11 @@
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V7" si="4">COUNTIF(C$2:C$255, U4)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W7" si="5">V4/V$8</f>
-        <v>9.055118110236221E-2</v>
+        <v>7.0866141732283464E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1734,11 +1648,11 @@
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="5"/>
-        <v>1.968503937007874E-2</v>
+        <v>2.7559055118110236E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1876,11 +1790,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="5"/>
-        <v>0.20866141732283464</v>
+        <v>0.25984251968503935</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1996,11 +1910,11 @@
       </c>
       <c r="V10">
         <f>SUM(I3:I255)</f>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2">
         <f>V10/254</f>
-        <v>0.25196850393700787</v>
+        <v>0.30314960629921262</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2543,19 +2457,55 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
       </c>
       <c r="S24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2960,19 +2910,55 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
       </c>
       <c r="P38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
       </c>
       <c r="S38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -3008,19 +2994,55 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
       </c>
       <c r="S40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -3590,25 +3612,34 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="P57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
       <c r="S57">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -3728,7 +3759,13 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
@@ -3738,9 +3775,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
       <c r="S61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -3989,19 +4029,55 @@
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
       </c>
       <c r="G70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
       </c>
       <c r="P70">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
       </c>
       <c r="S70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -4118,19 +4194,55 @@
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
       </c>
       <c r="G73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
       </c>
       <c r="P73">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
       </c>
       <c r="S73">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -4190,21 +4302,48 @@
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
       </c>
       <c r="P76">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>1</v>
@@ -4382,19 +4521,55 @@
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="G82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
       </c>
       <c r="P82">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
       </c>
       <c r="S82">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -5243,19 +5418,55 @@
       </c>
       <c r="C107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
       </c>
       <c r="G107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
       </c>
       <c r="P107">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
       </c>
       <c r="S107">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -5267,21 +5478,48 @@
       </c>
       <c r="C108">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
       </c>
       <c r="P108">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -5720,19 +5958,55 @@
       </c>
       <c r="C122">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
       </c>
       <c r="G122">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
       </c>
       <c r="P122">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(SUM(I122:O122) = 7, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
       </c>
       <c r="S122">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
@@ -5900,19 +6174,31 @@
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
       </c>
       <c r="G128">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
       <c r="S128">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -6116,17 +6402,20 @@
       </c>
       <c r="C134">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134">
         <f t="shared" si="11"/>
@@ -8408,21 +8697,48 @@
       </c>
       <c r="C206">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
         <v>1</v>
       </c>
       <c r="G206">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
       </c>
       <c r="P206">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -9509,22 +9825,52 @@
       </c>
       <c r="C240">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
         <v>1</v>
       </c>
       <c r="G240">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
       </c>
       <c r="P240">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S240">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
@@ -9824,27 +10170,48 @@
       </c>
       <c r="C250">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
         <v>1</v>
       </c>
       <c r="G250">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250">
         <v>1</v>
       </c>
       <c r="P250">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q250">
         <v>1</v>
@@ -9975,36 +10342,36 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:O255 U6:U7">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="I2:O255 U6:U7 Q38 Q24 Q40 Q122 Q82">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C255">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S255 S608:S1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Texas Project Summary.xlsx
+++ b/Texas Project Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kairom13/Documents/Texas/TX Sen Map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kairom13/Documents/GitHub/Texas-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38879B3C-9BB4-E243-A2F7-93C5B321D059}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123F697-4EA0-6847-813C-532E7DCFAA60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="660" windowWidth="26440" windowHeight="15440" xr2:uid="{87A53D59-FB68-734F-A84F-4BC2B1E74F2F}"/>
   </bookViews>
@@ -1305,8 +1305,8 @@
   <dimension ref="A1:W255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="V3">
         <f>COUNTIF(C$2:C$255, U3)</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W3" s="2">
         <f>V3/V$8</f>
-        <v>0.61811023622047245</v>
+        <v>0.61023622047244097</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V7" si="4">COUNTIF(C$2:C$255, U4)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W7" si="5">V4/V$8</f>
-        <v>7.0866141732283464E-2</v>
+        <v>7.4803149606299218E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="5"/>
-        <v>2.7559055118110236E-2</v>
+        <v>2.3622047244094488E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="5"/>
-        <v>0.25984251968503935</v>
+        <v>0.26771653543307089</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="V10">
         <f>SUM(I3:I255)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W10" s="2">
         <f>V10/254</f>
-        <v>0.30314960629921262</v>
+        <v>0.3110236220472441</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -6189,9 +6189,33 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
       <c r="P128">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -6813,19 +6837,55 @@
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
       </c>
       <c r="G146">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
       </c>
       <c r="P146">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
       </c>
       <c r="S146">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
@@ -7506,7 +7566,13 @@
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
       </c>
       <c r="G170">
         <f t="shared" si="13"/>
@@ -7518,7 +7584,7 @@
       </c>
       <c r="S170">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
